--- a/files/volumetrico_subsaturado.xlsx
+++ b/files/volumetrico_subsaturado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\py\ayllin\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDD63B1-EF02-47A5-B918-E0CBB3EC4D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E76D2A-0A1A-4050-A1AF-5CBE47EFF258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3930" windowWidth="14415" windowHeight="11550" xr2:uid="{44499CD8-C7FF-4958-889A-4A80EC9AE5DF}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="D11">
-        <v>127353</v>
+        <v>1273530</v>
       </c>
       <c r="E11">
         <v>2579</v>

--- a/files/volumetrico_subsaturado.xlsx
+++ b/files/volumetrico_subsaturado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\py\ayllin\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E76D2A-0A1A-4050-A1AF-5CBE47EFF258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80551BCB-9A03-43DD-BC3A-ABD92A18CE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3930" windowWidth="14415" windowHeight="11550" xr2:uid="{44499CD8-C7FF-4958-889A-4A80EC9AE5DF}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Bo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Np</t>
   </si>
@@ -57,9 +54,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,9 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,20 +399,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A820C274-DDC0-4476-8A04-9E13FEDA5956}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -427,28 +420,22 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3685</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.3102</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3680</v>
       </c>
@@ -456,16 +443,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.3104</v>
+        <v>20481</v>
       </c>
       <c r="D3">
-        <v>20481</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3676</v>
       </c>
@@ -473,16 +457,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.3104</v>
+        <v>34750</v>
       </c>
       <c r="D4">
-        <v>34750</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3667</v>
       </c>
@@ -490,16 +471,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.3105</v>
+        <v>78557</v>
       </c>
       <c r="D5">
-        <v>78557</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3664</v>
       </c>
@@ -507,16 +485,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.3105</v>
+        <v>101846</v>
       </c>
       <c r="D6">
-        <v>101846</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3640</v>
       </c>
@@ -524,16 +499,13 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>1.3109</v>
+        <v>215681</v>
       </c>
       <c r="D7">
-        <v>215681</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3605</v>
       </c>
@@ -541,16 +513,13 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>1.3116000000000001</v>
+        <v>364613</v>
       </c>
       <c r="D8">
-        <v>364613</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3567</v>
       </c>
@@ -558,16 +527,13 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>1.3122</v>
+        <v>542985</v>
       </c>
       <c r="D9">
-        <v>542985</v>
-      </c>
-      <c r="E9">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3515</v>
       </c>
@@ -575,16 +541,13 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>1.3128</v>
+        <v>841591</v>
       </c>
       <c r="D10">
-        <v>841591</v>
-      </c>
-      <c r="E10">
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3448</v>
       </c>
@@ -592,16 +555,13 @@
         <v>59</v>
       </c>
       <c r="C11">
-        <v>1.3129999999999999</v>
+        <v>1273530</v>
       </c>
       <c r="D11">
-        <v>1273530</v>
-      </c>
-      <c r="E11">
         <v>2579</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3360</v>
       </c>
@@ -609,16 +569,13 @@
         <v>59</v>
       </c>
       <c r="C12">
-        <v>1.3149999999999999</v>
+        <v>1691887</v>
       </c>
       <c r="D12">
-        <v>1691887</v>
-      </c>
-      <c r="E12">
         <v>5008</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3275</v>
       </c>
@@ -626,16 +583,13 @@
         <v>61</v>
       </c>
       <c r="C13">
-        <v>1.3160000000000001</v>
+        <v>2127077</v>
       </c>
       <c r="D13">
-        <v>2127077</v>
-      </c>
-      <c r="E13">
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3188</v>
       </c>
@@ -643,12 +597,9 @@
         <v>61</v>
       </c>
       <c r="C14">
-        <v>1.3169999999999999</v>
+        <v>2575330</v>
       </c>
       <c r="D14">
-        <v>2575330</v>
-      </c>
-      <c r="E14">
         <v>8000</v>
       </c>
     </row>
